--- a/count err/table.xlsx
+++ b/count err/table.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>9143</v>
+        <v>9245</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>9259</v>
@@ -445,6 +445,8 @@
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
